--- a/data/trans_orig/P04D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04D_R-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>50331</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37910</v>
+        <v>35840</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67082</v>
+        <v>65406</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05164061919875836</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0388963944448693</v>
+        <v>0.03677209515779663</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06882691384588155</v>
+        <v>0.06710786950579659</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -764,19 +764,19 @@
         <v>75781</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60436</v>
+        <v>60778</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94203</v>
+        <v>94754</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05664647808368123</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04517612058911723</v>
+        <v>0.04543123248879673</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07041639328169522</v>
+        <v>0.07082833309133112</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -785,19 +785,19 @@
         <v>126113</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>105230</v>
+        <v>103747</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>151164</v>
+        <v>149101</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05453661737003045</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04550607968431629</v>
+        <v>0.04486457683366949</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0653700819746484</v>
+        <v>0.06447765823858358</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>714212</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>683397</v>
+        <v>681925</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>741854</v>
+        <v>744365</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7327931353092436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7011763100804576</v>
+        <v>0.6996660248429437</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7611550737634715</v>
+        <v>0.7637313945338469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>895</v>
@@ -835,19 +835,19 @@
         <v>964396</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>929737</v>
+        <v>932564</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>997875</v>
+        <v>997332</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7208836676529579</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6949761605117017</v>
+        <v>0.697089564113111</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7459089958941513</v>
+        <v>0.745503379270669</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1559</v>
@@ -856,19 +856,19 @@
         <v>1678608</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1634248</v>
+        <v>1637375</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1723109</v>
+        <v>1720758</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7259032494082832</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7067203291555687</v>
+        <v>0.7080722773853673</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.745147385738074</v>
+        <v>0.7441307063378746</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>210100</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>183263</v>
+        <v>182608</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>237417</v>
+        <v>236729</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.215566245491998</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1880309830241824</v>
+        <v>0.1873583748812242</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2435938906576497</v>
+        <v>0.2428875859346961</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>281</v>
@@ -906,19 +906,19 @@
         <v>297620</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>267249</v>
+        <v>267863</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>331194</v>
+        <v>329213</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2224698542633609</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1997679543505928</v>
+        <v>0.2002266531160536</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2475664244005131</v>
+        <v>0.2460861517423269</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>477</v>
@@ -927,19 +927,19 @@
         <v>507720</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>468793</v>
+        <v>467100</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>549414</v>
+        <v>549294</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2195601332216864</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2027264492127442</v>
+        <v>0.2019943037650164</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2375906099312881</v>
+        <v>0.2375388472185463</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>79885</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63722</v>
+        <v>61468</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>99677</v>
+        <v>101079</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04067577860280109</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03244588633128111</v>
+        <v>0.03129810070417316</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05075313819007692</v>
+        <v>0.05146711191773089</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>66</v>
@@ -1052,19 +1052,19 @@
         <v>73407</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>57313</v>
+        <v>57540</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>91485</v>
+        <v>91285</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04176055837305238</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03260484503428007</v>
+        <v>0.03273416395699248</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05204490104859832</v>
+        <v>0.05193123541986993</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>138</v>
@@ -1073,19 +1073,19 @@
         <v>153292</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>128612</v>
+        <v>129643</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>178744</v>
+        <v>181991</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0411881245711987</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03455682180392073</v>
+        <v>0.03483369633915698</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04802681058684045</v>
+        <v>0.04889930576375596</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>1202230</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1159328</v>
+        <v>1158131</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1246950</v>
+        <v>1247265</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6121466849799029</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5903021066808005</v>
+        <v>0.5896928935416648</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6349170126207597</v>
+        <v>0.6350776292289736</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1003</v>
@@ -1123,19 +1123,19 @@
         <v>1087583</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1040863</v>
+        <v>1044927</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1125617</v>
+        <v>1130871</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6187173184113018</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5921385942993446</v>
+        <v>0.5944507248467282</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6403541811436944</v>
+        <v>0.6433433474177601</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2143</v>
@@ -1144,19 +1144,19 @@
         <v>2289813</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2230907</v>
+        <v>2225765</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2349438</v>
+        <v>2346802</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6152500223030316</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5994225706777923</v>
+        <v>0.5980409375761957</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6312706225726876</v>
+        <v>0.6305622921049543</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>681842</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>637773</v>
+        <v>640414</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>722869</v>
+        <v>727605</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.347177536417296</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3247389677850179</v>
+        <v>0.3260834151691612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3680675293962294</v>
+        <v>0.3704792268662315</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>566</v>
@@ -1194,19 +1194,19 @@
         <v>596813</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>558037</v>
+        <v>556158</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>638528</v>
+        <v>637456</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3395221232156458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3174627856187612</v>
+        <v>0.3163936702030024</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3632535923132581</v>
+        <v>0.362643556512059</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1210</v>
@@ -1215,19 +1215,19 @@
         <v>1278655</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1216012</v>
+        <v>1220886</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1336476</v>
+        <v>1340492</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3435618531257698</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3267302679274171</v>
+        <v>0.3280399348364343</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3590978576618651</v>
+        <v>0.3601767799114567</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>11899</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5950</v>
+        <v>6005</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21905</v>
+        <v>21512</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02472922847063043</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01236500690128767</v>
+        <v>0.01247925266640358</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04552385912917946</v>
+        <v>0.04470745255991887</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1340,19 +1340,19 @@
         <v>10387</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5005</v>
+        <v>5067</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20141</v>
+        <v>19005</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02264799969770561</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0109135473168584</v>
+        <v>0.01104790705758732</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04391629199894502</v>
+        <v>0.04143842995251904</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -1361,19 +1361,19 @@
         <v>22286</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13913</v>
+        <v>13170</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>33108</v>
+        <v>33534</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02371358312643368</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01480347913551353</v>
+        <v>0.01401327983675048</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03522861309922896</v>
+        <v>0.03568176625660319</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>234167</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>209741</v>
+        <v>210308</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>256526</v>
+        <v>259711</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4866508538683795</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4358880810554814</v>
+        <v>0.4370662998455789</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5331168234091889</v>
+        <v>0.5397374210001422</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>216</v>
@@ -1411,19 +1411,19 @@
         <v>239129</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>217731</v>
+        <v>215168</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>262706</v>
+        <v>261253</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5213979605049711</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4747411897228894</v>
+        <v>0.4691520328481087</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5728038578867756</v>
+        <v>0.5696370510156609</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>426</v>
@@ -1432,19 +1432,19 @@
         <v>473297</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>441623</v>
+        <v>439052</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>506056</v>
+        <v>503607</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5036075371214978</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4699047083045945</v>
+        <v>0.4671693332011705</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5384640676436856</v>
+        <v>0.5358589011996782</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>235115</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>211779</v>
+        <v>210090</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>258299</v>
+        <v>259363</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4886199176609901</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4401240932085496</v>
+        <v>0.436612973844328</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5368015532500657</v>
+        <v>0.5390141950390904</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>187</v>
@@ -1482,19 +1482,19 @@
         <v>209115</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>185837</v>
+        <v>186496</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>231487</v>
+        <v>232154</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4559540397973232</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4051989584053925</v>
+        <v>0.4066354460709699</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.504734999730257</v>
+        <v>0.5061886826928815</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>404</v>
@@ -1503,19 +1503,19 @@
         <v>444230</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>411213</v>
+        <v>415679</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>477226</v>
+        <v>478272</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4726788797520685</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4375475361832437</v>
+        <v>0.4422999296014422</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5077879395037928</v>
+        <v>0.5089007081125095</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>142116</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117502</v>
+        <v>119241</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>167211</v>
+        <v>170083</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04155701064566256</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03435959626459511</v>
+        <v>0.03486812395403179</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04889519519678679</v>
+        <v>0.04973514116842537</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>146</v>
@@ -1628,19 +1628,19 @@
         <v>159575</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>136890</v>
+        <v>136484</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>190101</v>
+        <v>186653</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04489730459208128</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03851457555965115</v>
+        <v>0.03840033155660846</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05348573744480813</v>
+        <v>0.05251568461425433</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>277</v>
@@ -1649,19 +1649,19 @@
         <v>301691</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>268000</v>
+        <v>267112</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>337276</v>
+        <v>337998</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04325935553438726</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03842833130118407</v>
+        <v>0.03830102752605868</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04836182094654546</v>
+        <v>0.04846532552698624</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>2150609</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2087998</v>
+        <v>2090887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2200976</v>
+        <v>2211639</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6288731774117741</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6105647854706148</v>
+        <v>0.6114095085931933</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6436011782173606</v>
+        <v>0.6467194318875958</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2114</v>
@@ -1699,19 +1699,19 @@
         <v>2291108</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2232377</v>
+        <v>2230460</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2346205</v>
+        <v>2344304</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6446143759404858</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6280901097709153</v>
+        <v>0.6275509113219654</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6601161855239234</v>
+        <v>0.6595815367550742</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4128</v>
@@ -1720,19 +1720,19 @@
         <v>4441717</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4359569</v>
+        <v>4352204</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4525240</v>
+        <v>4524735</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6368955099632201</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.62511636006908</v>
+        <v>0.6240603422658758</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6488718751094751</v>
+        <v>0.6487994276331633</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>1127057</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1070046</v>
+        <v>1068775</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1185306</v>
+        <v>1189245</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3295698119425634</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3128989917624626</v>
+        <v>0.3125271300880046</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3466029077194165</v>
+        <v>0.3477545705377629</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1034</v>
@@ -1770,19 +1770,19 @@
         <v>1103547</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1051511</v>
+        <v>1050016</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1162375</v>
+        <v>1162945</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3104883194674329</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2958476681057533</v>
+        <v>0.2954270534564559</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3270398731416363</v>
+        <v>0.3272001739034777</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2091</v>
@@ -1791,19 +1791,19 @@
         <v>2230604</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2152338</v>
+        <v>2155987</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>2314878</v>
+        <v>2318791</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3198451345023927</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3086225974186638</v>
+        <v>0.3091459150508543</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3319292077426166</v>
+        <v>0.3324901946554529</v>
       </c>
     </row>
     <row r="19">
@@ -2134,19 +2134,19 @@
         <v>164978</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>143383</v>
+        <v>143775</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>188269</v>
+        <v>187609</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2187026291828888</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.190076108320203</v>
+        <v>0.1905955603593517</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2495783168649986</v>
+        <v>0.2487043196558547</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>189</v>
@@ -2155,19 +2155,19 @@
         <v>206778</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>181863</v>
+        <v>182942</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>236274</v>
+        <v>234863</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2078878573921245</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1828391485800929</v>
+        <v>0.1839238671787265</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2375424642874197</v>
+        <v>0.2361237135210704</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>349</v>
@@ -2176,19 +2176,19 @@
         <v>371755</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>340374</v>
+        <v>341034</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>406711</v>
+        <v>408012</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2125522689603004</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1946100510065874</v>
+        <v>0.1949873161444843</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2325381561341988</v>
+        <v>0.2332820191474159</v>
       </c>
     </row>
     <row r="5">
@@ -2205,19 +2205,19 @@
         <v>458799</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>432857</v>
+        <v>432730</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>486629</v>
+        <v>486490</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6082074723671808</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5738171941094946</v>
+        <v>0.5736485590230891</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6450996701963968</v>
+        <v>0.6449149817112018</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>511</v>
@@ -2226,19 +2226,19 @@
         <v>567212</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>530950</v>
+        <v>535051</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>596897</v>
+        <v>598524</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5702575124872372</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5338008946032122</v>
+        <v>0.537923370510864</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6001011212218902</v>
+        <v>0.6017376239839506</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>981</v>
@@ -2247,19 +2247,19 @@
         <v>1026012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>979918</v>
+        <v>979964</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1064405</v>
+        <v>1064209</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5866253319198198</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5602711810928567</v>
+        <v>0.5602974785969737</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6085770101761798</v>
+        <v>0.6084646942634722</v>
       </c>
     </row>
     <row r="6">
@@ -2276,19 +2276,19 @@
         <v>130570</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>110382</v>
+        <v>110203</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>152665</v>
+        <v>151773</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1730898984499304</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1463279419519758</v>
+        <v>0.1460907203804763</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2023804019679595</v>
+        <v>0.2011979958195253</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>192</v>
@@ -2297,19 +2297,19 @@
         <v>220670</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>195086</v>
+        <v>192668</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>249989</v>
+        <v>247168</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2218546301206382</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.196132988143936</v>
+        <v>0.1937027474256071</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.251330624329494</v>
+        <v>0.2484951429385732</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>324</v>
@@ -2318,19 +2318,19 @@
         <v>351240</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>321530</v>
+        <v>316336</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>387321</v>
+        <v>387385</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2008223991198798</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1838356887305231</v>
+        <v>0.1808660879060631</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2214518302752614</v>
+        <v>0.221488576878701</v>
       </c>
     </row>
     <row r="7">
@@ -2422,19 +2422,19 @@
         <v>318894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>281269</v>
+        <v>285906</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>352367</v>
+        <v>354223</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1535814881501378</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1354608036628328</v>
+        <v>0.1376938806836041</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1697021146801364</v>
+        <v>0.1705960125619225</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>239</v>
@@ -2443,19 +2443,19 @@
         <v>246848</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>217701</v>
+        <v>219383</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>276259</v>
+        <v>278660</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1241504619623969</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1094911697592145</v>
+        <v>0.1103370029262557</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1389423427022724</v>
+        <v>0.1401500910403374</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>522</v>
@@ -2464,19 +2464,19 @@
         <v>565743</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>519404</v>
+        <v>523865</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>608908</v>
+        <v>611958</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1391848717234891</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1277846245283978</v>
+        <v>0.1288821149716064</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1498045619692181</v>
+        <v>0.1505548310501323</v>
       </c>
     </row>
     <row r="9">
@@ -2493,19 +2493,19 @@
         <v>1070125</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1025019</v>
+        <v>1017966</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1119691</v>
+        <v>1116772</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5153786845231572</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.49365563524675</v>
+        <v>0.4902588304594414</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5392499542232115</v>
+        <v>0.5378441699299511</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>995</v>
@@ -2514,19 +2514,19 @@
         <v>1028526</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>987711</v>
+        <v>982850</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1078205</v>
+        <v>1078392</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5172889988315222</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4967614985668496</v>
+        <v>0.494316867642949</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5422749206999097</v>
+        <v>0.5423687683652529</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2018</v>
@@ -2535,19 +2535,19 @@
         <v>2098650</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2034275</v>
+        <v>2036995</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2164186</v>
+        <v>2163108</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5163131426754632</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5004754763858483</v>
+        <v>0.5011445595598482</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5324362798476238</v>
+        <v>0.5321710182971309</v>
       </c>
     </row>
     <row r="10">
@@ -2564,19 +2564,19 @@
         <v>687366</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>643025</v>
+        <v>644416</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>733920</v>
+        <v>729977</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3310398273267051</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3096847985596425</v>
+        <v>0.3103547436041654</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.353460308239057</v>
+        <v>0.351561401298039</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>674</v>
@@ -2585,19 +2585,19 @@
         <v>712926</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>667675</v>
+        <v>665676</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>754421</v>
+        <v>758294</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3585605392060808</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3358021425436594</v>
+        <v>0.3347966210771184</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.379429968973634</v>
+        <v>0.3813780129796888</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1320</v>
@@ -2606,19 +2606,19 @@
         <v>1400292</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1333537</v>
+        <v>1341402</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1462099</v>
+        <v>1463216</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3445019856010477</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3280788063604508</v>
+        <v>0.3300136727132805</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3597078698875865</v>
+        <v>0.3599826140774041</v>
       </c>
     </row>
     <row r="11">
@@ -2710,19 +2710,19 @@
         <v>48650</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36486</v>
+        <v>36484</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>64383</v>
+        <v>62110</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08895793291088713</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06671515783455076</v>
+        <v>0.06671310114780904</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1177265633532392</v>
+        <v>0.113570263411293</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>55</v>
@@ -2731,19 +2731,19 @@
         <v>57798</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44496</v>
+        <v>44125</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>73206</v>
+        <v>73534</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1052520369097409</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0810285074852857</v>
+        <v>0.08035373178893597</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1333098300190593</v>
+        <v>0.1339076883857559</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>98</v>
@@ -2752,19 +2752,19 @@
         <v>106448</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>85560</v>
+        <v>86675</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>128693</v>
+        <v>126262</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09712174054601752</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07806401320143842</v>
+        <v>0.07908117801511692</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1174178615212258</v>
+        <v>0.1152001210576272</v>
       </c>
     </row>
     <row r="13">
@@ -2781,19 +2781,19 @@
         <v>255739</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>232610</v>
+        <v>232664</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>280434</v>
+        <v>281564</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4676269110444013</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4253363444629306</v>
+        <v>0.4254343329586636</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5127834379898343</v>
+        <v>0.5148496976838823</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>240</v>
@@ -2802,19 +2802,19 @@
         <v>245082</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>219780</v>
+        <v>220288</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>268861</v>
+        <v>267628</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4463016954650459</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4002262428940144</v>
+        <v>0.4011502229752618</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4896038669592129</v>
+        <v>0.4873576541858575</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>473</v>
@@ -2823,19 +2823,19 @@
         <v>500821</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>467175</v>
+        <v>468469</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>536144</v>
+        <v>535978</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4569423740008308</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.426243816485279</v>
+        <v>0.4274242977398374</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4891707936063721</v>
+        <v>0.4890190370373262</v>
       </c>
     </row>
     <row r="14">
@@ -2852,19 +2852,19 @@
         <v>242498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>218175</v>
+        <v>218275</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>266320</v>
+        <v>265463</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4434151560447115</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.398939777642986</v>
+        <v>0.3991230640231134</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4869746479826996</v>
+        <v>0.4854077451485995</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>231</v>
@@ -2873,19 +2873,19 @@
         <v>246260</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>220680</v>
+        <v>223128</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>271010</v>
+        <v>270326</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4484462676252132</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4018640569216674</v>
+        <v>0.4063228602294186</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4935180055070236</v>
+        <v>0.4922714900150107</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>456</v>
@@ -2894,19 +2894,19 @@
         <v>488758</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>454044</v>
+        <v>454583</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>523239</v>
+        <v>521699</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4459358854531517</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4142636237329426</v>
+        <v>0.4147552676890023</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4773960373113026</v>
+        <v>0.4759906192881002</v>
       </c>
     </row>
     <row r="15">
@@ -2998,19 +2998,19 @@
         <v>532522</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>489182</v>
+        <v>486196</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>578929</v>
+        <v>577301</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1576619350396557</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1448305591696853</v>
+        <v>0.1439463356027616</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1714016749810246</v>
+        <v>0.1709195116828541</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>483</v>
@@ -3019,19 +3019,19 @@
         <v>511424</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>467423</v>
+        <v>471304</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>552597</v>
+        <v>555301</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1447932391719155</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.132335781420156</v>
+        <v>0.1334345827879298</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1564501186760124</v>
+        <v>0.1572154418051085</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>969</v>
@@ -3040,19 +3040,19 @@
         <v>1043946</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>988036</v>
+        <v>987077</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1114115</v>
+        <v>1102481</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1510837324633835</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1429921969825683</v>
+        <v>0.1428534519023655</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1612388957008896</v>
+        <v>0.1595551889271347</v>
       </c>
     </row>
     <row r="17">
@@ -3069,19 +3069,19 @@
         <v>1784663</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1720750</v>
+        <v>1721849</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1846941</v>
+        <v>1838146</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.528379062668943</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5094565972360253</v>
+        <v>0.5097821172848749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.546817748291219</v>
+        <v>0.5442136223971413</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1746</v>
@@ -3090,19 +3090,19 @@
         <v>1840820</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1785486</v>
+        <v>1782804</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1898844</v>
+        <v>1901490</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5211687515574487</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5055027327023383</v>
+        <v>0.5047433857540224</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5375964563561412</v>
+        <v>0.5383455020414372</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3472</v>
@@ -3111,19 +3111,19 @@
         <v>3625483</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3542014</v>
+        <v>3545837</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3711088</v>
+        <v>3719204</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5246933055715002</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5126133705158107</v>
+        <v>0.5131667210402833</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5370824365261688</v>
+        <v>0.5382569368977685</v>
       </c>
     </row>
     <row r="18">
@@ -3140,19 +3140,19 @@
         <v>1060434</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1004446</v>
+        <v>1002903</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1115781</v>
+        <v>1115722</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3139590022914013</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2973829685120278</v>
+        <v>0.2969260633803329</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.330345618130013</v>
+        <v>0.3303280206592133</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1097</v>
@@ -3161,19 +3161,19 @@
         <v>1179856</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1127203</v>
+        <v>1122906</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1242536</v>
+        <v>1236533</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3340380092706359</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3191312399243755</v>
+        <v>0.317914528653664</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3517839366158405</v>
+        <v>0.3500843131845405</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2100</v>
@@ -3182,19 +3182,19 @@
         <v>2240289</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2162318</v>
+        <v>2163849</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>2319498</v>
+        <v>2324645</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3242229619651163</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3129386553143433</v>
+        <v>0.3131602738400041</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3356862906367794</v>
+        <v>0.3364311966214422</v>
       </c>
     </row>
     <row r="19">
@@ -3525,19 +3525,19 @@
         <v>82314</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67446</v>
+        <v>65965</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>103504</v>
+        <v>100928</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1425497112042995</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1168011365285553</v>
+        <v>0.1142365920533072</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1792452668396479</v>
+        <v>0.1747833271799224</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>166</v>
@@ -3546,19 +3546,19 @@
         <v>105389</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>90694</v>
+        <v>90493</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>122263</v>
+        <v>121301</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1282048423367421</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.110328636678081</v>
+        <v>0.1100843029500102</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1487312812089214</v>
+        <v>0.1475615283818236</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>248</v>
@@ -3567,19 +3567,19 @@
         <v>187704</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>168435</v>
+        <v>165074</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>213167</v>
+        <v>210580</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1341237153048749</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1203553257466696</v>
+        <v>0.1179534165804785</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1523186471406768</v>
+        <v>0.150469929658429</v>
       </c>
     </row>
     <row r="5">
@@ -3596,19 +3596,19 @@
         <v>405703</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>378982</v>
+        <v>383042</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>424958</v>
+        <v>426822</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7025834027831259</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6563097030321977</v>
+        <v>0.6633401905493473</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7359299044170502</v>
+        <v>0.7391571825449649</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1083</v>
@@ -3617,19 +3617,19 @@
         <v>615521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>595941</v>
+        <v>594391</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>634287</v>
+        <v>633694</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7487745387688883</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.72495527106491</v>
+        <v>0.7230696019592038</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7716029133250784</v>
+        <v>0.7708820655728613</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1584</v>
@@ -3638,19 +3638,19 @@
         <v>1021224</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>991713</v>
+        <v>993803</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1047714</v>
+        <v>1049715</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7297154962166207</v>
+        <v>0.7297154962166206</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7086286938374399</v>
+        <v>0.7101219929749534</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7486438362418667</v>
+        <v>0.7500742331736876</v>
       </c>
     </row>
     <row r="6">
@@ -3667,19 +3667,19 @@
         <v>89427</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>74200</v>
+        <v>74873</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>108380</v>
+        <v>109126</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1548668860125746</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1284969870570939</v>
+        <v>0.1296634626225948</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1876897245998564</v>
+        <v>0.1889818114275975</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>178</v>
@@ -3688,19 +3688,19 @@
         <v>101128</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>86939</v>
+        <v>88048</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>116116</v>
+        <v>116021</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1230206188943696</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.105760447620677</v>
+        <v>0.1071097046516249</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1412540488211667</v>
+        <v>0.1411376806442312</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>285</v>
@@ -3709,19 +3709,19 @@
         <v>190555</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>169361</v>
+        <v>167524</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>213419</v>
+        <v>210553</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1361607884785044</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.12101698940149</v>
+        <v>0.119703964880296</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1524984774506707</v>
+        <v>0.1504507470024266</v>
       </c>
     </row>
     <row r="7">
@@ -3813,19 +3813,19 @@
         <v>272865</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>238512</v>
+        <v>236020</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>308773</v>
+        <v>306770</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1223297608742881</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1069287745430744</v>
+        <v>0.1058117275345326</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1384279813566194</v>
+        <v>0.1375299332589699</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>344</v>
@@ -3834,19 +3834,19 @@
         <v>268239</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>240283</v>
+        <v>241607</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>298866</v>
+        <v>299863</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1235329843382134</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1106586416243001</v>
+        <v>0.1112683903842659</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1376378932504942</v>
+        <v>0.1380971197240809</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>566</v>
@@ -3855,19 +3855,19 @@
         <v>541103</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>496420</v>
+        <v>497514</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>595280</v>
+        <v>588763</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1229232853182148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1127724466946647</v>
+        <v>0.1130211001443594</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.135230734115903</v>
+        <v>0.1337501983487954</v>
       </c>
     </row>
     <row r="9">
@@ -3884,19 +3884,19 @@
         <v>1464980</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1412054</v>
+        <v>1417889</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1518107</v>
+        <v>1516145</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6567750153992395</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6330471869340721</v>
+        <v>0.635663132498733</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6805927408388727</v>
+        <v>0.6797131714465253</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1951</v>
@@ -3905,19 +3905,19 @@
         <v>1444878</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1405722</v>
+        <v>1402444</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1484046</v>
+        <v>1478874</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.6654156863498011</v>
+        <v>0.6654156863498009</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6473826952904378</v>
+        <v>0.6458733540669175</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6834536643294409</v>
+        <v>0.6810719831856187</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3292</v>
@@ -3926,19 +3926,19 @@
         <v>2909859</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2840360</v>
+        <v>2840792</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2977191</v>
+        <v>2974104</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.6610372738864162</v>
+        <v>0.6610372738864163</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6452491388309026</v>
+        <v>0.6453471611056403</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6763331801857421</v>
+        <v>0.6756318395052321</v>
       </c>
     </row>
     <row r="10">
@@ -3955,19 +3955,19 @@
         <v>492721</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>449429</v>
+        <v>448936</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>542235</v>
+        <v>541146</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2208952237264725</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2014864080530781</v>
+        <v>0.2012656599963809</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2430931476750209</v>
+        <v>0.2426048565136442</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>626</v>
@@ -3976,19 +3976,19 @@
         <v>458275</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>426811</v>
+        <v>424367</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>495433</v>
+        <v>493403</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2110513293119856</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1965608450987609</v>
+        <v>0.1954354673682921</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2281638017236479</v>
+        <v>0.2272288398343197</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1055</v>
@@ -3997,19 +3997,19 @@
         <v>950997</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>894597</v>
+        <v>889423</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1010879</v>
+        <v>1006891</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2160394407953688</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2032269340586848</v>
+        <v>0.2020517323423561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2296430886528628</v>
+        <v>0.2287371304474742</v>
       </c>
     </row>
     <row r="11">
@@ -4101,19 +4101,19 @@
         <v>76114</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59257</v>
+        <v>58514</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>97903</v>
+        <v>97866</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.106963648082113</v>
+        <v>0.1069636480821129</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08327501312400132</v>
+        <v>0.0822298616242763</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1375839930533997</v>
+        <v>0.1375319970417366</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>101</v>
@@ -4122,19 +4122,19 @@
         <v>81834</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>67399</v>
+        <v>66312</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>99273</v>
+        <v>99721</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1113579551139958</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09171503413293892</v>
+        <v>0.09023552969292935</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1350879457902653</v>
+        <v>0.1356972004609521</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>163</v>
@@ -4143,19 +4143,19 @@
         <v>157948</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>134641</v>
+        <v>135849</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>183090</v>
+        <v>184434</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1091961790725029</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09308260204199584</v>
+        <v>0.09391794298625888</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1265773614851004</v>
+        <v>0.1275068500415391</v>
       </c>
     </row>
     <row r="13">
@@ -4172,19 +4172,19 @@
         <v>376206</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>348061</v>
+        <v>348830</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>402185</v>
+        <v>406059</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5286864197522599</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4891335093142958</v>
+        <v>0.4902140958785053</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5651950197615082</v>
+        <v>0.5706382318118847</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>505</v>
@@ -4193,19 +4193,19 @@
         <v>357101</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>332680</v>
+        <v>334564</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>380569</v>
+        <v>385182</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4859328477402952</v>
+        <v>0.4859328477402953</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4527015823933109</v>
+        <v>0.455265173316544</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5178682728476849</v>
+        <v>0.5241446566861071</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>860</v>
@@ -4214,19 +4214,19 @@
         <v>733307</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>695602</v>
+        <v>697182</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>769735</v>
+        <v>772262</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5069654353572112</v>
+        <v>0.5069654353572111</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4808984351319971</v>
+        <v>0.4819902848573078</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5321492352668371</v>
+        <v>0.533896198385459</v>
       </c>
     </row>
     <row r="14">
@@ -4243,19 +4243,19 @@
         <v>259267</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>234085</v>
+        <v>232705</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>286654</v>
+        <v>285940</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3643499321656272</v>
+        <v>0.3643499321656271</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3289614217497991</v>
+        <v>0.327023133530729</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4028373429192241</v>
+        <v>0.4018341949534946</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>398</v>
@@ -4264,19 +4264,19 @@
         <v>295942</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>272253</v>
+        <v>272917</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>318539</v>
+        <v>319127</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4027091971457089</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3704736052912721</v>
+        <v>0.3713776301033112</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.43345914559854</v>
+        <v>0.4342584946594425</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>662</v>
@@ -4285,19 +4285,19 @@
         <v>555208</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>518307</v>
+        <v>517776</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>592213</v>
+        <v>590763</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.383838385570286</v>
+        <v>0.3838383855702859</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.358326942559189</v>
+        <v>0.357959528950329</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4094215115057303</v>
+        <v>0.4084189109491326</v>
       </c>
     </row>
     <row r="15">
@@ -4389,19 +4389,19 @@
         <v>431293</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>389710</v>
+        <v>387446</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>481997</v>
+        <v>477723</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1225404540022393</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1107257289366612</v>
+        <v>0.110082581532861</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1369467463377978</v>
+        <v>0.1357322944311685</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>611</v>
@@ -4410,19 +4410,19 @@
         <v>455462</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>422619</v>
+        <v>422043</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>494329</v>
+        <v>493576</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1221632720423775</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1133540585518323</v>
+        <v>0.113199694122886</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1325881162368888</v>
+        <v>0.1323860095132504</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>977</v>
@@ -4431,19 +4431,19 @@
         <v>886755</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>831163</v>
+        <v>832793</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>947564</v>
+        <v>948122</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1223464323666578</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1146762863612778</v>
+        <v>0.1149012241667635</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1307362256364818</v>
+        <v>0.1308133049101791</v>
       </c>
     </row>
     <row r="17">
@@ -4460,19 +4460,19 @@
         <v>2246889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2179146</v>
+        <v>2188281</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2311038</v>
+        <v>2308700</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6383938135822212</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6191464579688331</v>
+        <v>0.621742062747734</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6566201648793679</v>
+        <v>0.6559558217286628</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3539</v>
@@ -4481,19 +4481,19 @@
         <v>2417500</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2369261</v>
+        <v>2363619</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2472816</v>
+        <v>2469716</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6484176965375904</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6354790343887541</v>
+        <v>0.6339657464962662</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6632544919189967</v>
+        <v>0.6624229279853442</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5736</v>
@@ -4502,19 +4502,19 @@
         <v>4664389</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4576399</v>
+        <v>4584438</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4747178</v>
+        <v>4749613</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.643550078655425</v>
+        <v>0.6435500786554252</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6314100015624975</v>
+        <v>0.6325191586768875</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6549725126662137</v>
+        <v>0.6553084741748402</v>
       </c>
     </row>
     <row r="18">
@@ -4531,19 +4531,19 @@
         <v>841415</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>784200</v>
+        <v>782900</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>904191</v>
+        <v>897929</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2390657324155394</v>
+        <v>0.2390657324155395</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2228095047376734</v>
+        <v>0.2224402732123219</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2569018522668313</v>
+        <v>0.2551225966074597</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1202</v>
@@ -4552,19 +4552,19 @@
         <v>855345</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>809376</v>
+        <v>809436</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>897867</v>
+        <v>902302</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2294190314200321</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2170893744979214</v>
+        <v>0.2171055743760832</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2408241909958102</v>
+        <v>0.2420139193653181</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2002</v>
@@ -4573,19 +4573,19 @@
         <v>1696760</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1620873</v>
+        <v>1621404</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1774067</v>
+        <v>1775056</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.234103488977917</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2236332854938364</v>
+        <v>0.2237065458653947</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.244769643797579</v>
+        <v>0.2449060576497795</v>
       </c>
     </row>
     <row r="19">
